--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Courseworks\AVS\AVS-course-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D11291E-78EE-4FF9-81DD-FA79D010C645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72593E3D-F285-4300-900C-8DFB2EF37DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B696CF83-CD03-47F5-9486-CFC321C3F2DD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>cpuNp</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>ratio</t>
-  </si>
-  <si>
-    <t>График однопотока ЦПУ с HTT и без HTT</t>
   </si>
   <si>
     <t>График многопотока ЦПУ с HTT и без HTT</t>
@@ -86,6 +83,21 @@
   <si>
     <t>График отношения однопотока ГПУ к однопотоку ЦПУ</t>
   </si>
+  <si>
+    <t>gpups</t>
+  </si>
+  <si>
+    <t>gpup</t>
+  </si>
+  <si>
+    <t>график отношения всех ядер ГПУ без разделяемой памяти к разделяемой памяти</t>
+  </si>
+  <si>
+    <t>График отношения однопотока ЦПУ бзе HTT к однопотоку цпу с HTT</t>
+  </si>
+  <si>
+    <t>график отношения цпу с htt к гпу с разделяемой паматью</t>
+  </si>
 </sst>
 </file>
 
@@ -101,7 +113,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -182,17 +194,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -215,670 +227,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>HTT включен</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$A$21:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$B$21:$B$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.67</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.52</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.8800000000000008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26.67</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35.700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46.55</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>59.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>75.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>93.16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>113.2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>136.28</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>162.16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>191.34</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-40BE-40E2-A4C8-C57EBA436FF9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>HTT выключен</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="dash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDash"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Лист1!$A$21:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8500</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Лист1!$C$21:$C$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.55</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.82</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.41</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.260000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26.66</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35.65</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46.53</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>59.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>75.34</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>93.19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>113.33</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>136.38999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>162.27000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>191.33</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-40BE-40E2-A4C8-C57EBA436FF9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1283573232"/>
-        <c:axId val="1283571152"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1283573232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10500"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Размер</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> матрицы</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-BY"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-BY"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1283571152"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1000"/>
-        <c:minorUnit val="500"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1283571152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="275"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Время умножения,</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> с</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-BY"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-BY"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1283573232"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-BY"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="dash"/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-BY"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1354,6 +702,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1536,7 +898,941 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$21:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$21:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99401197604790414</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99702380952380953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0054347826086958</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9932432432432432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0007462686567163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0015600624024961</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99962504686914133</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99859943977591026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99957035445757259</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0005312084993361</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0003220266208674</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0011484098939929</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0008071617258585</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0006783423778984</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99994773701264772</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC87-48E8-A139-FA8B59C1632E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1127570559"/>
+        <c:axId val="1127571807"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1127570559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10500"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер матрицы</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1127571807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1127571807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0089999999999999"/>
+          <c:min val="0.99199999999999999"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Отношение</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> времени</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1127570559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-BY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$230:$A$247</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$230:$B$247</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.135135135135137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.483870967741934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.210526315789473</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.829457364341085</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.539267015706805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.414448669201519</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.078651685393261</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.450980392156861</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.961602671118531</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.006711409395972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.501035196687372</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17.165354330708663</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.171428571428574</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.852637962401456</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.892057026476579</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B893-48C9-9E77-88E817721DC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="923358255"/>
+        <c:axId val="923369071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="923358255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10500"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер матрицы</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923369071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="923369071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="21.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Отношение времени</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923358255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-BY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2012,6 +2308,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2189,7 +2499,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2479,6 +2789,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2657,7 +2981,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2870,6 +3194,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3017,7 +3355,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3321,6 +3659,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3467,7 +3819,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -3680,6 +4032,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3831,7 +4197,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4135,6 +4501,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4287,7 +4667,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -4738,7 +5118,552 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$207:$A$224</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$207:$B$224</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3243243243243246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2258064516129035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7209302325581395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2931937172774868</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6121673003802277</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2696629213483153</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.507625272331155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.2404006677796326</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5302013422818792</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0786749482401659</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.394575678040245</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.121428571428571</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4384475439660398</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.1496945010183302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04BD-4B05-A499-AB99639EA028}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="277195599"/>
+        <c:axId val="277196431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="277195599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10500"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер матрицы</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="277196431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="277196431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Отношение времени</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-BY"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-BY"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="277195599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-BY"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5614,7 +6539,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6130,7 +7055,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6646,7 +7571,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7162,7 +8087,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7678,7 +8603,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8194,7 +9119,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8710,7 +9635,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9226,7 +10151,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9742,44 +10667,1040 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>578897</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>105602</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523394</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76970</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4285C3D5-9281-4B10-990F-DB9F60E37DEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -9810,7 +11731,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9846,7 +11767,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9882,7 +11803,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9918,7 +11839,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9954,7 +11875,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9990,7 +11911,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10026,7 +11947,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10062,7 +11983,115 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>473242</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>104274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168442</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>80210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D809948B-E113-4909-B85C-1D4F00A49797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>160421</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>465221</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104273</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Диаграмма 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4CBEA8B-3684-4AF7-8CBB-DE134081F93F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>531091</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>10006</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238606</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>167024</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Диаграмма 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{451C98EE-CE85-4FF4-AEDB-8602D9561583}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10368,203 +12397,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CCE5CF-F8AC-4FD6-B5EC-49E3A3180E5B}">
-  <dimension ref="A1:AJ203"/>
+  <dimension ref="A1:AJ247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E98" zoomScale="126" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="R113" sqref="R113"/>
+    <sheetView tabSelected="1" topLeftCell="I14" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="1">
-        <v>1.5</v>
+    <row r="2" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="2">
+        <v>0.35</v>
       </c>
       <c r="F2" s="3">
-        <v>1.59</v>
+        <v>0.45</v>
       </c>
       <c r="G2" s="3">
-        <v>2.4900000000000002</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="H2" s="3">
-        <v>2.59</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="I2" s="3">
-        <v>3.86</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="J2" s="3">
-        <v>3.83</v>
+        <v>1.1220000000000001</v>
       </c>
       <c r="K2" s="3">
-        <v>5.67</v>
+        <v>1.3759999999999999</v>
       </c>
       <c r="L2" s="3">
-        <v>5.6</v>
+        <v>1.6220000000000001</v>
       </c>
       <c r="M2" s="3">
-        <v>8.06</v>
-      </c>
-    </row>
-    <row r="3" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="2">
-        <v>1.51</v>
+        <v>1.9319999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="4">
+        <v>0.35199999999999998</v>
       </c>
       <c r="F3" s="5">
-        <v>1.6</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="G3" s="5">
-        <v>2.5299999999999998</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="H3" s="5">
-        <v>2.62</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="I3" s="5">
-        <v>3.93</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="J3" s="5">
-        <v>3.87</v>
+        <v>1.135</v>
       </c>
       <c r="K3" s="5">
-        <v>5.76</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="L3" s="5">
-        <v>5.65</v>
+        <v>1.637</v>
       </c>
       <c r="M3" s="5">
-        <v>8.1300000000000008</v>
-      </c>
-    </row>
-    <row r="4" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="2">
-        <v>1.53</v>
+        <v>1.952</v>
+      </c>
+    </row>
+    <row r="4" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="4">
+        <v>0.35699999999999998</v>
       </c>
       <c r="F4" s="5">
-        <v>1.62</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="G4" s="5">
-        <v>2.56</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="H4" s="5">
-        <v>2.64</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="I4" s="5">
-        <v>3.96</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="J4" s="5">
-        <v>3.9</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="K4" s="5">
-        <v>5.8</v>
+        <v>1.3939999999999999</v>
       </c>
       <c r="L4" s="5">
-        <v>5.69</v>
+        <v>1.6459999999999999</v>
       </c>
       <c r="M4" s="5">
-        <v>8.19</v>
-      </c>
-    </row>
-    <row r="5" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="2">
-        <v>1.53</v>
+        <v>1.966</v>
+      </c>
+    </row>
+    <row r="5" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="4">
+        <v>0.35899999999999999</v>
       </c>
       <c r="F5" s="5">
-        <v>1.62</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="G5" s="5">
-        <v>2.56</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="H5" s="5">
-        <v>2.65</v>
+        <v>0.751</v>
       </c>
       <c r="I5" s="5">
-        <v>3.97</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="J5" s="5">
-        <v>3.91</v>
+        <v>1.151</v>
       </c>
       <c r="K5" s="5">
-        <v>5.82</v>
+        <v>1.41</v>
       </c>
       <c r="L5" s="5">
-        <v>5.7</v>
+        <v>1.6639999999999999</v>
       </c>
       <c r="M5" s="5">
-        <v>8.19</v>
-      </c>
-    </row>
-    <row r="6" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="2">
-        <v>1.54</v>
+        <v>1.9670000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="4">
+        <v>0.36199999999999999</v>
       </c>
       <c r="F6" s="5">
-        <v>1.62</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="G6" s="5">
-        <v>2.56</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="H6" s="5">
-        <v>2.65</v>
+        <v>0.76</v>
       </c>
       <c r="I6" s="5">
-        <v>3.97</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="J6" s="5">
-        <v>3.91</v>
+        <v>1.17</v>
       </c>
       <c r="K6" s="5">
-        <v>5.82</v>
+        <v>1.4259999999999999</v>
       </c>
       <c r="L6" s="5">
-        <v>5.7</v>
+        <v>1.675</v>
       </c>
       <c r="M6" s="5">
-        <v>8.19</v>
+        <v>2.004</v>
       </c>
     </row>
     <row r="8" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E8">
         <f t="shared" ref="E8:L8" si="0">AVERAGE(E2:E6)</f>
-        <v>1.522</v>
-      </c>
-      <c r="F8" s="4">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>1.61</v>
+        <v>0.45879999999999999</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>2.54</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>2.63</v>
+        <v>0.74499999999999988</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>3.9380000000000002</v>
+        <v>0.96579999999999999</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>3.8840000000000003</v>
+        <v>1.1432</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>5.774</v>
+        <v>1.4003999999999999</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>5.6680000000000001</v>
+        <v>1.6488</v>
       </c>
       <c r="M8">
         <f>AVERAGE(M2:M6)</f>
-        <v>8.1519999999999992</v>
+        <v>1.9641999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>0</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>1</v>
       </c>
     </row>
@@ -10573,13 +12602,17 @@
         <v>1000</v>
       </c>
       <c r="B21">
-        <v>0.11</v>
+        <f>D21/C21</f>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0.11</v>
       </c>
+      <c r="D21">
+        <v>0.11</v>
+      </c>
       <c r="O21" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -10587,9 +12620,13 @@
         <v>1500</v>
       </c>
       <c r="B22">
+        <f t="shared" ref="B22:B38" si="1">D22/C22</f>
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>0.54</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.54</v>
       </c>
     </row>
@@ -10598,9 +12635,13 @@
         <v>2000</v>
       </c>
       <c r="B23">
+        <f t="shared" si="1"/>
+        <v>0.99401197604790414</v>
+      </c>
+      <c r="C23">
         <v>1.67</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1.66</v>
       </c>
     </row>
@@ -10609,9 +12650,13 @@
         <v>2500</v>
       </c>
       <c r="B24">
+        <f t="shared" si="1"/>
+        <v>0.99702380952380953</v>
+      </c>
+      <c r="C24">
         <v>3.36</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>3.35</v>
       </c>
     </row>
@@ -10620,9 +12665,13 @@
         <v>3000</v>
       </c>
       <c r="B25">
+        <f t="shared" si="1"/>
+        <v>1.0054347826086958</v>
+      </c>
+      <c r="C25">
         <v>5.52</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>5.55</v>
       </c>
     </row>
@@ -10631,9 +12680,13 @@
         <v>3500</v>
       </c>
       <c r="B26">
+        <f t="shared" si="1"/>
+        <v>0.9932432432432432</v>
+      </c>
+      <c r="C26">
         <v>8.8800000000000008</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>8.82</v>
       </c>
     </row>
@@ -10642,9 +12695,13 @@
         <v>4000</v>
       </c>
       <c r="B27">
+        <f t="shared" si="1"/>
+        <v>1.0007462686567163</v>
+      </c>
+      <c r="C27">
         <v>13.4</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>13.41</v>
       </c>
     </row>
@@ -10653,9 +12710,13 @@
         <v>4500</v>
       </c>
       <c r="B28">
+        <f t="shared" si="1"/>
+        <v>1.0015600624024961</v>
+      </c>
+      <c r="C28">
         <v>19.23</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>19.260000000000002</v>
       </c>
     </row>
@@ -10664,9 +12725,13 @@
         <v>5000</v>
       </c>
       <c r="B29">
+        <f t="shared" si="1"/>
+        <v>0.99962504686914133</v>
+      </c>
+      <c r="C29">
         <v>26.67</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>26.66</v>
       </c>
     </row>
@@ -10675,9 +12740,13 @@
         <v>5500</v>
       </c>
       <c r="B30">
+        <f t="shared" si="1"/>
+        <v>0.99859943977591026</v>
+      </c>
+      <c r="C30">
         <v>35.700000000000003</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>35.65</v>
       </c>
     </row>
@@ -10686,9 +12755,13 @@
         <v>6000</v>
       </c>
       <c r="B31">
+        <f t="shared" si="1"/>
+        <v>0.99957035445757259</v>
+      </c>
+      <c r="C31">
         <v>46.55</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>46.53</v>
       </c>
     </row>
@@ -10697,9 +12770,13 @@
         <v>6500</v>
       </c>
       <c r="B32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C32">
         <v>59.8</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>59.8</v>
       </c>
     </row>
@@ -10708,9 +12785,13 @@
         <v>7000</v>
       </c>
       <c r="B33">
+        <f t="shared" si="1"/>
+        <v>1.0005312084993361</v>
+      </c>
+      <c r="C33">
         <v>75.3</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>75.34</v>
       </c>
     </row>
@@ -10719,9 +12800,13 @@
         <v>7500</v>
       </c>
       <c r="B34">
+        <f t="shared" si="1"/>
+        <v>1.0003220266208674</v>
+      </c>
+      <c r="C34">
         <v>93.16</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>93.19</v>
       </c>
     </row>
@@ -10730,9 +12815,13 @@
         <v>8000</v>
       </c>
       <c r="B35">
+        <f t="shared" si="1"/>
+        <v>1.0011484098939929</v>
+      </c>
+      <c r="C35">
         <v>113.2</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>113.33</v>
       </c>
     </row>
@@ -10741,9 +12830,13 @@
         <v>8500</v>
       </c>
       <c r="B36">
+        <f t="shared" si="1"/>
+        <v>1.0008071617258585</v>
+      </c>
+      <c r="C36">
         <v>136.28</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>136.38999999999999</v>
       </c>
     </row>
@@ -10752,9 +12845,13 @@
         <v>9000</v>
       </c>
       <c r="B37">
+        <f t="shared" si="1"/>
+        <v>1.0006783423778984</v>
+      </c>
+      <c r="C37">
         <v>162.16</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>162.27000000000001</v>
       </c>
     </row>
@@ -10763,9 +12860,13 @@
         <v>9500</v>
       </c>
       <c r="B38">
+        <f t="shared" si="1"/>
+        <v>0.99994773701264772</v>
+      </c>
+      <c r="C38">
         <v>191.34</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>191.33</v>
       </c>
     </row>
@@ -10777,7 +12878,7 @@
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y46" t="s">
         <v>2</v>
@@ -10786,7 +12887,7 @@
         <v>3</v>
       </c>
       <c r="AJ46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
@@ -10827,7 +12928,7 @@
         <v>1500</v>
       </c>
       <c r="X48">
-        <f t="shared" ref="X48:X64" si="1">Z48/Y48</f>
+        <f t="shared" ref="X48:X64" si="2">Z48/Y48</f>
         <v>1.4444444444444446</v>
       </c>
       <c r="Y48">
@@ -10851,7 +12952,7 @@
         <v>2000</v>
       </c>
       <c r="X49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6296296296296295</v>
       </c>
       <c r="Y49">
@@ -10875,7 +12976,7 @@
         <v>2500</v>
       </c>
       <c r="X50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.607142857142857</v>
       </c>
       <c r="Y50">
@@ -10899,7 +13000,7 @@
         <v>3000</v>
       </c>
       <c r="X51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6354166666666667</v>
       </c>
       <c r="Y51">
@@ -10923,7 +13024,7 @@
         <v>3500</v>
       </c>
       <c r="X52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6623376623376622</v>
       </c>
       <c r="Y52">
@@ -10947,7 +13048,7 @@
         <v>4000</v>
       </c>
       <c r="X53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="Y53">
@@ -10971,7 +13072,7 @@
         <v>4500</v>
       </c>
       <c r="X54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5880597014925373</v>
       </c>
       <c r="Y54">
@@ -10995,7 +13096,7 @@
         <v>5000</v>
       </c>
       <c r="X55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5982532751091703</v>
       </c>
       <c r="Y55">
@@ -11019,7 +13120,7 @@
         <v>5500</v>
       </c>
       <c r="X56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5970394736842106</v>
       </c>
       <c r="Y56">
@@ -11043,7 +13144,7 @@
         <v>6000</v>
       </c>
       <c r="X57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6466916354556804</v>
       </c>
       <c r="Y57">
@@ -11067,7 +13168,7 @@
         <v>6500</v>
       </c>
       <c r="X58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5826771653543306</v>
       </c>
       <c r="Y58">
@@ -11091,7 +13192,7 @@
         <v>7000</v>
       </c>
       <c r="X59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6716653512233624</v>
       </c>
       <c r="Y59">
@@ -11115,7 +13216,7 @@
         <v>7500</v>
       </c>
       <c r="X60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6700125470514431</v>
       </c>
       <c r="Y60">
@@ -11139,7 +13240,7 @@
         <v>8000</v>
       </c>
       <c r="X61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6049949031600406</v>
       </c>
       <c r="Y61">
@@ -11163,7 +13264,7 @@
         <v>8500</v>
       </c>
       <c r="X62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6952296819787986</v>
       </c>
       <c r="Y62">
@@ -11187,7 +13288,7 @@
         <v>9000</v>
       </c>
       <c r="X63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7304785894206551</v>
       </c>
       <c r="Y63">
@@ -11211,7 +13312,7 @@
         <v>9500</v>
       </c>
       <c r="X64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5981787137165622</v>
       </c>
       <c r="Y64">
@@ -11223,7 +13324,7 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="X66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.3">
@@ -11234,7 +13335,7 @@
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="X69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
@@ -11262,7 +13363,7 @@
         <v>0.01</v>
       </c>
       <c r="N72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.3">
@@ -11460,7 +13561,7 @@
         <v>5</v>
       </c>
       <c r="M98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
@@ -11522,7 +13623,7 @@
         <v>82.74</v>
       </c>
       <c r="N119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
@@ -11530,7 +13631,7 @@
         <v>1500</v>
       </c>
       <c r="B120">
-        <f t="shared" ref="B120:B121" si="2">D120 / C120</f>
+        <f t="shared" ref="B120:B121" si="3">D120 / C120</f>
         <v>10561</v>
       </c>
       <c r="C120">
@@ -11545,7 +13646,7 @@
         <v>2000</v>
       </c>
       <c r="B121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12402.333333333334</v>
       </c>
       <c r="C121">
@@ -11586,7 +13687,7 @@
         <v>1500</v>
       </c>
       <c r="B140">
-        <f t="shared" ref="B140:B156" si="3">C140 / D140</f>
+        <f t="shared" ref="B140:B156" si="4">C140 / D140</f>
         <v>6.0000000000000009</v>
       </c>
       <c r="C140">
@@ -11601,7 +13702,7 @@
         <v>2000</v>
       </c>
       <c r="B141">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1851851851851842</v>
       </c>
       <c r="C141">
@@ -11616,7 +13717,7 @@
         <v>2500</v>
       </c>
       <c r="B142">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9999999999999991</v>
       </c>
       <c r="C142">
@@ -11631,7 +13732,7 @@
         <v>3000</v>
       </c>
       <c r="B143">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.75</v>
       </c>
       <c r="C143">
@@ -11641,7 +13742,7 @@
         <v>0.96</v>
       </c>
       <c r="N143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
@@ -11649,7 +13750,7 @@
         <v>3500</v>
       </c>
       <c r="B144">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7662337662337668</v>
       </c>
       <c r="C144">
@@ -11664,7 +13765,7 @@
         <v>4000</v>
       </c>
       <c r="B145">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8260869565217401</v>
       </c>
       <c r="C145">
@@ -11679,7 +13780,7 @@
         <v>4500</v>
       </c>
       <c r="B146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7402985074626862</v>
       </c>
       <c r="C146">
@@ -11694,7 +13795,7 @@
         <v>5000</v>
       </c>
       <c r="B147">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.823144104803494</v>
       </c>
       <c r="C147">
@@ -11709,7 +13810,7 @@
         <v>5500</v>
       </c>
       <c r="B148">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8717105263157903</v>
       </c>
       <c r="C148">
@@ -11724,7 +13825,7 @@
         <v>6000</v>
       </c>
       <c r="B149">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8114856429463169</v>
       </c>
       <c r="C149">
@@ -11739,7 +13840,7 @@
         <v>6500</v>
       </c>
       <c r="B150">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8858267716535426</v>
       </c>
       <c r="C150">
@@ -11754,7 +13855,7 @@
         <v>7000</v>
       </c>
       <c r="B151">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.943172849250197</v>
       </c>
       <c r="C151">
@@ -11769,7 +13870,7 @@
         <v>7500</v>
       </c>
       <c r="B152">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8444165621079049</v>
       </c>
       <c r="C152">
@@ -11784,7 +13885,7 @@
         <v>8000</v>
       </c>
       <c r="B153">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7696228338430169</v>
       </c>
       <c r="C153">
@@ -11799,7 +13900,7 @@
         <v>8500</v>
       </c>
       <c r="B154">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.0194346289752652</v>
       </c>
       <c r="C154">
@@ -11814,7 +13915,7 @@
         <v>9000</v>
       </c>
       <c r="B155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8351925152932713</v>
       </c>
       <c r="C155">
@@ -11829,7 +13930,7 @@
         <v>9500</v>
       </c>
       <c r="B156">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.4450768355150823</v>
       </c>
       <c r="C156">
@@ -11862,7 +13963,7 @@
         <v>82.74</v>
       </c>
       <c r="N162" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
@@ -11870,7 +13971,7 @@
         <v>1500</v>
       </c>
       <c r="B163">
-        <f t="shared" ref="B163:B164" si="4">D163/C163</f>
+        <f t="shared" ref="B163:B164" si="5">D163/C163</f>
         <v>586.72222222222217</v>
       </c>
       <c r="C163">
@@ -11885,7 +13986,7 @@
         <v>2000</v>
       </c>
       <c r="B164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>445.59281437125748</v>
       </c>
       <c r="C164">
@@ -11923,7 +14024,7 @@
         <v>1500</v>
       </c>
       <c r="B186">
-        <f t="shared" ref="B186:B202" si="5">D186/C186</f>
+        <f t="shared" ref="B186:B202" si="6">D186/C186</f>
         <v>3</v>
       </c>
       <c r="C186">
@@ -11938,7 +14039,7 @@
         <v>2000</v>
       </c>
       <c r="B187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5000000000000009</v>
       </c>
       <c r="C187">
@@ -11953,7 +14054,7 @@
         <v>2500</v>
       </c>
       <c r="B188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5000000000000004</v>
       </c>
       <c r="C188">
@@ -11968,7 +14069,7 @@
         <v>3000</v>
       </c>
       <c r="B189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.8</v>
       </c>
       <c r="C189">
@@ -11983,7 +14084,7 @@
         <v>3500</v>
       </c>
       <c r="B190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0526315789473681</v>
       </c>
       <c r="C190">
@@ -11998,7 +14099,7 @@
         <v>4000</v>
       </c>
       <c r="B191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.7916666666666661</v>
       </c>
       <c r="C191">
@@ -12013,7 +14114,7 @@
         <v>4500</v>
       </c>
       <c r="B192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0853658536585371</v>
       </c>
       <c r="C192">
@@ -12023,12 +14124,12 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>5000</v>
       </c>
       <c r="B193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.8210526315789473</v>
       </c>
       <c r="C193">
@@ -12038,12 +14139,12 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>5500</v>
       </c>
       <c r="B194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C194">
@@ -12053,12 +14154,12 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>6000</v>
       </c>
       <c r="B195">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9751552795031051</v>
       </c>
       <c r="C195">
@@ -12068,12 +14169,12 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>6500</v>
       </c>
       <c r="B196">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C196">
@@ -12083,12 +14184,12 @@
         <v>10.16</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>7000</v>
       </c>
       <c r="B197">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.8174904942965782</v>
       </c>
       <c r="C197">
@@ -12098,12 +14199,12 @@
         <v>12.67</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>7500</v>
       </c>
       <c r="B198">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.0456852791878175</v>
       </c>
       <c r="C198">
@@ -12113,12 +14214,12 @@
         <v>15.94</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>8000</v>
       </c>
       <c r="B199">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.0567010309278357</v>
       </c>
       <c r="C199">
@@ -12128,12 +14229,12 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>8500</v>
       </c>
       <c r="B200">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.9237435008665513</v>
       </c>
       <c r="C200">
@@ -12143,12 +14244,12 @@
         <v>22.64</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>9000</v>
       </c>
       <c r="B201">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9012345679012341</v>
       </c>
       <c r="C201">
@@ -12158,12 +14259,12 @@
         <v>27.79</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>9500</v>
       </c>
       <c r="B202">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3116564417177914</v>
       </c>
       <c r="C202">
@@ -12173,10 +14274,572 @@
         <v>35.14</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B203">
         <f>AVERAGE(B185:B202)</f>
         <v>4.1990212958473574</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>1000</v>
+      </c>
+      <c r="B207">
+        <f>D207/C207</f>
+        <v>5</v>
+      </c>
+      <c r="C207">
+        <v>2E-3</v>
+      </c>
+      <c r="D207">
+        <v>0.01</v>
+      </c>
+      <c r="N207" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>1500</v>
+      </c>
+      <c r="B208">
+        <f t="shared" ref="B208:B224" si="7">D208/C208</f>
+        <v>3.75</v>
+      </c>
+      <c r="C208">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D208">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>2000</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="7"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="C209">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D209">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>2500</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="7"/>
+        <v>4.3243243243243246</v>
+      </c>
+      <c r="C210">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D210">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>3000</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="7"/>
+        <v>3.2258064516129035</v>
+      </c>
+      <c r="C211">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D211">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>3500</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="C212">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D212">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>4000</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="7"/>
+        <v>3.7209302325581395</v>
+      </c>
+      <c r="C213">
+        <v>0.129</v>
+      </c>
+      <c r="D213">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>4500</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="7"/>
+        <v>4.2931937172774868</v>
+      </c>
+      <c r="C214">
+        <v>0.191</v>
+      </c>
+      <c r="D214">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>5000</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="7"/>
+        <v>3.6121673003802277</v>
+      </c>
+      <c r="C215">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D215">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>5500</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="7"/>
+        <v>4.2696629213483153</v>
+      </c>
+      <c r="C216">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="D216">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>6000</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="7"/>
+        <v>3.507625272331155</v>
+      </c>
+      <c r="C217">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D217">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>6500</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="7"/>
+        <v>4.2404006677796326</v>
+      </c>
+      <c r="C218">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="D218">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>7000</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="7"/>
+        <v>3.5302013422818792</v>
+      </c>
+      <c r="C219">
+        <v>0.745</v>
+      </c>
+      <c r="D219">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>7500</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="7"/>
+        <v>4.0786749482401659</v>
+      </c>
+      <c r="C220">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D220">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>8000</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="7"/>
+        <v>3.394575678040245</v>
+      </c>
+      <c r="C221">
+        <v>1.143</v>
+      </c>
+      <c r="D221">
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>8500</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="7"/>
+        <v>4.121428571428571</v>
+      </c>
+      <c r="C222">
+        <v>1.4</v>
+      </c>
+      <c r="D222">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>9000</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="7"/>
+        <v>3.4384475439660398</v>
+      </c>
+      <c r="C223">
+        <v>1.649</v>
+      </c>
+      <c r="D223">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>9500</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="7"/>
+        <v>4.1496945010183302</v>
+      </c>
+      <c r="C224">
+        <v>1.964</v>
+      </c>
+      <c r="D224">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C229" t="s">
+        <v>16</v>
+      </c>
+      <c r="D229" t="s">
+        <v>2</v>
+      </c>
+      <c r="O229" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>1000</v>
+      </c>
+      <c r="B230">
+        <f>D230/C230</f>
+        <v>10</v>
+      </c>
+      <c r="C230">
+        <v>2E-3</v>
+      </c>
+      <c r="D230">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>1500</v>
+      </c>
+      <c r="B231">
+        <f t="shared" ref="B231:B247" si="8">D231/C231</f>
+        <v>11.25</v>
+      </c>
+      <c r="C231">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D231">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>2000</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="8"/>
+        <v>15.000000000000002</v>
+      </c>
+      <c r="C232">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D232">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>2500</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="8"/>
+        <v>15.135135135135137</v>
+      </c>
+      <c r="C233">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D233">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>3000</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="8"/>
+        <v>15.483870967741934</v>
+      </c>
+      <c r="C234">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D234">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>3500</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="8"/>
+        <v>16.210526315789473</v>
+      </c>
+      <c r="C235">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="D235">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>4000</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="8"/>
+        <v>17.829457364341085</v>
+      </c>
+      <c r="C236">
+        <v>0.129</v>
+      </c>
+      <c r="D236">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>4500</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="8"/>
+        <v>17.539267015706805</v>
+      </c>
+      <c r="C237">
+        <v>0.191</v>
+      </c>
+      <c r="D237">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>5000</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="8"/>
+        <v>17.414448669201519</v>
+      </c>
+      <c r="C238">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D238">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>5500</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="8"/>
+        <v>17.078651685393261</v>
+      </c>
+      <c r="C239">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="D239">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>6000</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="8"/>
+        <v>17.450980392156861</v>
+      </c>
+      <c r="C240">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D240">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>6500</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="8"/>
+        <v>16.961602671118531</v>
+      </c>
+      <c r="C241">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="D241">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>7000</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="8"/>
+        <v>17.006711409395972</v>
+      </c>
+      <c r="C242">
+        <v>0.745</v>
+      </c>
+      <c r="D242">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>7500</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="8"/>
+        <v>16.501035196687372</v>
+      </c>
+      <c r="C243">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="D243">
+        <v>15.94</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>8000</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="8"/>
+        <v>17.165354330708663</v>
+      </c>
+      <c r="C244">
+        <v>1.143</v>
+      </c>
+      <c r="D244">
+        <v>19.62</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>8500</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="8"/>
+        <v>16.171428571428574</v>
+      </c>
+      <c r="C245">
+        <v>1.4</v>
+      </c>
+      <c r="D245">
+        <v>22.64</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>9000</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="8"/>
+        <v>16.852637962401456</v>
+      </c>
+      <c r="C246">
+        <v>1.649</v>
+      </c>
+      <c r="D246">
+        <v>27.79</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>9500</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="8"/>
+        <v>17.892057026476579</v>
+      </c>
+      <c r="C247">
+        <v>1.964</v>
+      </c>
+      <c r="D247">
+        <v>35.14</v>
       </c>
     </row>
   </sheetData>

--- a/graphics.xlsx
+++ b/graphics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Courseworks\AVS\AVS-course-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72593E3D-F285-4300-900C-8DFB2EF37DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E2C6CC-678B-4FB6-942A-34B1A6685A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B696CF83-CD03-47F5-9486-CFC321C3F2DD}"/>
   </bookViews>
@@ -4971,6 +4971,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -12397,10 +12411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CCE5CF-F8AC-4FD6-B5EC-49E3A3180E5B}">
-  <dimension ref="A1:AJ247"/>
+  <dimension ref="A1:AJ248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I14" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="90" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14561,6 +14575,18 @@
         <v>8.15</v>
       </c>
     </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <f>AVERAGE(B207:B224)</f>
+        <v>3.8883592669955971</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <f>MEDIAN(B207:B224)</f>
+        <v>3.875</v>
+      </c>
+    </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C229" t="s">
         <v>16</v>
@@ -14840,6 +14866,12 @@
       </c>
       <c r="D247">
         <v>35.14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <f>AVERAGE(B230:B247)</f>
+        <v>16.052398039649063</v>
       </c>
     </row>
   </sheetData>
